--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8628" uniqueCount="503">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,6 +879,9 @@
     <t>Bundle.entry:messageheader.fullUrl</t>
   </si>
   <si>
+    <t>Uri de identificación dentro del Bundle</t>
+  </si>
+  <si>
     <t>Bundle.entry:messageheader.resource</t>
   </si>
   <si>
@@ -1126,7 +1129,7 @@
 </t>
   </si>
   <si>
-    <t>Profesional que revisa la interconsulta</t>
+    <t>Médico que revisa la interconsulta</t>
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
@@ -7969,7 +7972,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>77</v>
@@ -7981,7 +7984,7 @@
         <v>101</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>190</v>
@@ -8066,7 +8069,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>192</v>
@@ -8092,13 +8095,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8164,10 +8167,10 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8178,7 +8181,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>196</v>
@@ -8290,7 +8293,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>200</v>
@@ -8402,7 +8405,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>201</v>
@@ -8516,7 +8519,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>202</v>
@@ -8632,7 +8635,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>203</v>
@@ -8746,7 +8749,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>209</v>
@@ -8860,7 +8863,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>214</v>
@@ -8972,7 +8975,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>218</v>
@@ -9084,7 +9087,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>219</v>
@@ -9198,7 +9201,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>220</v>
@@ -9314,7 +9317,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>221</v>
@@ -9426,7 +9429,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>226</v>
@@ -9540,7 +9543,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>230</v>
@@ -9652,7 +9655,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>233</v>
@@ -9764,7 +9767,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>235</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>238</v>
@@ -9988,7 +9991,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>241</v>
@@ -10100,7 +10103,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>245</v>
@@ -10212,7 +10215,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>246</v>
@@ -10326,7 +10329,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>247</v>
@@ -10442,7 +10445,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>248</v>
@@ -10554,7 +10557,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>251</v>
@@ -10666,7 +10669,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>254</v>
@@ -10780,7 +10783,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>258</v>
@@ -10894,7 +10897,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>262</v>
@@ -11008,13 +11011,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>77</v>
@@ -11039,7 +11042,7 @@
         <v>145</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>178</v>
@@ -11122,7 +11125,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>182</v>
@@ -11234,7 +11237,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>183</v>
@@ -11348,7 +11351,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>184</v>
@@ -11464,7 +11467,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>185</v>
@@ -11576,7 +11579,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>188</v>
@@ -11587,13 +11590,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>77</v>
@@ -11605,7 +11608,7 @@
         <v>101</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>190</v>
@@ -11690,14 +11693,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -11716,13 +11719,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11788,10 +11791,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -11802,7 +11805,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>196</v>
@@ -11914,7 +11917,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>200</v>
@@ -12026,7 +12029,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>201</v>
@@ -12140,7 +12143,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>202</v>
@@ -12256,7 +12259,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>203</v>
@@ -12370,7 +12373,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>209</v>
@@ -12484,7 +12487,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>214</v>
@@ -12596,7 +12599,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>218</v>
@@ -12708,7 +12711,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>219</v>
@@ -12822,7 +12825,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>220</v>
@@ -12938,7 +12941,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>221</v>
@@ -13050,7 +13053,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>226</v>
@@ -13164,7 +13167,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>230</v>
@@ -13276,7 +13279,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>233</v>
@@ -13388,7 +13391,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>235</v>
@@ -13500,7 +13503,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>238</v>
@@ -13612,7 +13615,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>241</v>
@@ -13724,7 +13727,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>245</v>
@@ -13836,7 +13839,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>246</v>
@@ -13950,7 +13953,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>247</v>
@@ -14066,7 +14069,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>248</v>
@@ -14178,7 +14181,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>251</v>
@@ -14290,7 +14293,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>254</v>
@@ -14404,7 +14407,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>258</v>
@@ -14518,7 +14521,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>262</v>
@@ -14632,13 +14635,13 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -14663,7 +14666,7 @@
         <v>145</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>178</v>
@@ -14746,7 +14749,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>182</v>
@@ -14858,7 +14861,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>183</v>
@@ -14972,7 +14975,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>184</v>
@@ -15088,7 +15091,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>185</v>
@@ -15200,7 +15203,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>188</v>
@@ -15211,13 +15214,13 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H118" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I118" t="s" s="2">
         <v>77</v>
@@ -15229,7 +15232,7 @@
         <v>101</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>190</v>
@@ -15314,7 +15317,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>192</v>
@@ -15340,13 +15343,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -15412,10 +15415,10 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>77</v>
@@ -15426,7 +15429,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>196</v>
@@ -15538,7 +15541,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>200</v>
@@ -15650,7 +15653,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>201</v>
@@ -15764,7 +15767,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>202</v>
@@ -15880,7 +15883,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>203</v>
@@ -15994,7 +15997,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>209</v>
@@ -16108,7 +16111,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>214</v>
@@ -16220,7 +16223,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>218</v>
@@ -16332,7 +16335,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>219</v>
@@ -16446,7 +16449,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>220</v>
@@ -16562,7 +16565,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>221</v>
@@ -16674,7 +16677,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>226</v>
@@ -16788,7 +16791,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>230</v>
@@ -16900,7 +16903,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>233</v>
@@ -17012,7 +17015,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>235</v>
@@ -17124,7 +17127,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>238</v>
@@ -17236,7 +17239,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>241</v>
@@ -17348,7 +17351,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>245</v>
@@ -17460,7 +17463,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>246</v>
@@ -17574,7 +17577,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>247</v>
@@ -17690,7 +17693,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>248</v>
@@ -17802,7 +17805,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>251</v>
@@ -17914,7 +17917,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>254</v>
@@ -18028,7 +18031,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>258</v>
@@ -18142,7 +18145,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>262</v>
@@ -18256,13 +18259,13 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>77</v>
@@ -18272,7 +18275,7 @@
         <v>87</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>77</v>
@@ -18287,7 +18290,7 @@
         <v>145</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M145" t="s" s="2">
         <v>178</v>
@@ -18370,7 +18373,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>182</v>
@@ -18482,7 +18485,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>183</v>
@@ -18596,7 +18599,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>184</v>
@@ -18712,7 +18715,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>185</v>
@@ -18824,7 +18827,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>188</v>
@@ -18835,13 +18838,13 @@
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H150" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I150" t="s" s="2">
         <v>77</v>
@@ -18853,7 +18856,7 @@
         <v>101</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M150" t="s" s="2">
         <v>190</v>
@@ -18938,7 +18941,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>192</v>
@@ -18955,7 +18958,7 @@
         <v>87</v>
       </c>
       <c r="H151" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I151" t="s" s="2">
         <v>77</v>
@@ -18964,13 +18967,13 @@
         <v>77</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19036,10 +19039,10 @@
         <v>77</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>77</v>
@@ -19050,7 +19053,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>196</v>
@@ -19162,7 +19165,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>200</v>
@@ -19274,7 +19277,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>201</v>
@@ -19388,7 +19391,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>202</v>
@@ -19504,7 +19507,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B156" t="s" s="2">
         <v>203</v>
@@ -19618,7 +19621,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B157" t="s" s="2">
         <v>209</v>
@@ -19732,7 +19735,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B158" t="s" s="2">
         <v>214</v>
@@ -19844,7 +19847,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B159" t="s" s="2">
         <v>218</v>
@@ -19956,7 +19959,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>219</v>
@@ -20070,7 +20073,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>220</v>
@@ -20186,7 +20189,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>221</v>
@@ -20298,7 +20301,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>226</v>
@@ -20412,7 +20415,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>230</v>
@@ -20524,7 +20527,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>233</v>
@@ -20636,7 +20639,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>235</v>
@@ -20748,7 +20751,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>238</v>
@@ -20860,7 +20863,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>241</v>
@@ -20972,7 +20975,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>245</v>
@@ -21084,7 +21087,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>246</v>
@@ -21198,7 +21201,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>247</v>
@@ -21314,7 +21317,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>248</v>
@@ -21426,7 +21429,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>251</v>
@@ -21538,7 +21541,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B174" t="s" s="2">
         <v>254</v>
@@ -21652,7 +21655,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B175" t="s" s="2">
         <v>258</v>
@@ -21766,7 +21769,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B176" t="s" s="2">
         <v>262</v>
@@ -21880,13 +21883,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>77</v>
@@ -21896,7 +21899,7 @@
         <v>87</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>77</v>
@@ -21911,7 +21914,7 @@
         <v>145</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>178</v>
@@ -21994,7 +21997,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B178" t="s" s="2">
         <v>182</v>
@@ -22106,7 +22109,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B179" t="s" s="2">
         <v>183</v>
@@ -22220,7 +22223,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B180" t="s" s="2">
         <v>184</v>
@@ -22336,7 +22339,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B181" t="s" s="2">
         <v>185</v>
@@ -22448,7 +22451,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B182" t="s" s="2">
         <v>188</v>
@@ -22459,13 +22462,13 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>77</v>
@@ -22477,7 +22480,7 @@
         <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M182" t="s" s="2">
         <v>190</v>
@@ -22562,7 +22565,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B183" t="s" s="2">
         <v>192</v>
@@ -22588,13 +22591,13 @@
         <v>77</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
@@ -22660,10 +22663,10 @@
         <v>77</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>77</v>
@@ -22674,7 +22677,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B184" t="s" s="2">
         <v>196</v>
@@ -22786,7 +22789,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B185" t="s" s="2">
         <v>200</v>
@@ -22898,7 +22901,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B186" t="s" s="2">
         <v>201</v>
@@ -23012,7 +23015,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B187" t="s" s="2">
         <v>202</v>
@@ -23128,7 +23131,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>203</v>
@@ -23242,7 +23245,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>209</v>
@@ -23356,7 +23359,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>214</v>
@@ -23468,7 +23471,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>218</v>
@@ -23580,7 +23583,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>219</v>
@@ -23694,7 +23697,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>220</v>
@@ -23810,7 +23813,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>221</v>
@@ -23922,7 +23925,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>226</v>
@@ -24036,7 +24039,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>230</v>
@@ -24148,7 +24151,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>233</v>
@@ -24260,7 +24263,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>235</v>
@@ -24372,7 +24375,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>238</v>
@@ -24484,7 +24487,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>241</v>
@@ -24596,7 +24599,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>245</v>
@@ -24708,7 +24711,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>246</v>
@@ -24822,7 +24825,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>247</v>
@@ -24938,7 +24941,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B204" t="s" s="2">
         <v>248</v>
@@ -25050,7 +25053,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B205" t="s" s="2">
         <v>251</v>
@@ -25162,7 +25165,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B206" t="s" s="2">
         <v>254</v>
@@ -25276,7 +25279,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B207" t="s" s="2">
         <v>258</v>
@@ -25390,7 +25393,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>262</v>
@@ -25504,13 +25507,13 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B209" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -25535,7 +25538,7 @@
         <v>145</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M209" t="s" s="2">
         <v>178</v>
@@ -25618,7 +25621,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B210" t="s" s="2">
         <v>182</v>
@@ -25730,7 +25733,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B211" t="s" s="2">
         <v>183</v>
@@ -25844,7 +25847,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B212" t="s" s="2">
         <v>184</v>
@@ -25960,7 +25963,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>185</v>
@@ -26072,7 +26075,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B214" t="s" s="2">
         <v>188</v>
@@ -26083,13 +26086,13 @@
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G214" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H214" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I214" t="s" s="2">
         <v>77</v>
@@ -26101,7 +26104,7 @@
         <v>101</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="M214" t="s" s="2">
         <v>190</v>
@@ -26186,14 +26189,14 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B215" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
@@ -26212,13 +26215,13 @@
         <v>77</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
@@ -26284,10 +26287,10 @@
         <v>77</v>
       </c>
       <c r="AK215" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM215" t="s" s="2">
         <v>77</v>
@@ -26298,7 +26301,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B216" t="s" s="2">
         <v>196</v>
@@ -26410,7 +26413,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B217" t="s" s="2">
         <v>200</v>
@@ -26522,7 +26525,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>201</v>
@@ -26636,7 +26639,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B219" t="s" s="2">
         <v>202</v>
@@ -26752,7 +26755,7 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B220" t="s" s="2">
         <v>203</v>
@@ -26866,7 +26869,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B221" t="s" s="2">
         <v>209</v>
@@ -26980,7 +26983,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B222" t="s" s="2">
         <v>214</v>
@@ -27092,7 +27095,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>218</v>
@@ -27204,7 +27207,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B224" t="s" s="2">
         <v>219</v>
@@ -27318,7 +27321,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B225" t="s" s="2">
         <v>220</v>
@@ -27434,7 +27437,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B226" t="s" s="2">
         <v>221</v>
@@ -27546,7 +27549,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B227" t="s" s="2">
         <v>226</v>
@@ -27660,7 +27663,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>230</v>
@@ -27772,7 +27775,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>233</v>
@@ -27884,7 +27887,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>235</v>
@@ -27996,7 +27999,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>238</v>
@@ -28108,7 +28111,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>241</v>
@@ -28220,7 +28223,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>245</v>
@@ -28332,7 +28335,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B234" t="s" s="2">
         <v>246</v>
@@ -28446,7 +28449,7 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B235" t="s" s="2">
         <v>247</v>
@@ -28562,7 +28565,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B236" t="s" s="2">
         <v>248</v>
@@ -28674,7 +28677,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B237" t="s" s="2">
         <v>251</v>
@@ -28786,7 +28789,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B238" t="s" s="2">
         <v>254</v>
@@ -28900,7 +28903,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B239" t="s" s="2">
         <v>258</v>
@@ -29014,7 +29017,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B240" t="s" s="2">
         <v>262</v>
@@ -29128,10 +29131,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -29154,19 +29157,19 @@
         <v>88</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O241" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="P241" t="s" s="2">
         <v>77</v>
@@ -29215,7 +29218,7 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>78</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -622,7 +622,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-BundleRevisarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1900,17 +1900,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.1015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.90234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.23828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.0625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.90234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1919,26 +1919,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="162.69140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.6640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="146.4296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.4375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="31.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.0625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="41.6640625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.46875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.64453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.16015625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7406,7 +7406,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>77</v>
@@ -11030,7 +11030,7 @@
         <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>77</v>
@@ -14654,7 +14654,7 @@
         <v>87</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I113" t="s" s="2">
         <v>77</v>
@@ -18278,7 +18278,7 @@
         <v>387</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>77</v>
@@ -21902,7 +21902,7 @@
         <v>387</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I177" t="s" s="2">
         <v>77</v>
@@ -25526,7 +25526,7 @@
         <v>79</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I209" t="s" s="2">
         <v>77</v>
